--- a/Collections/Евро/Ireland/#EURO#Ireland#Commemorative[2007-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Ireland/#EURO#Ireland#Commemorative[2007-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,9 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -436,6 +436,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -500,15 +509,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -530,9 +530,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="10"/>
-    <tableColumn id="2" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -824,27 +824,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1157,11 +1157,11 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F3 F11:F12 F8 F5">
+  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1174,7 +1174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -1189,7 +1189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -1204,7 +1204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -1219,7 +1219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -1234,7 +1234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -1249,7 +1249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -1264,7 +1264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1382,8 +1382,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
